--- a/Liz/Resources/Neighbourhood to FSA mapping.xlsx
+++ b/Liz/Resources/Neighbourhood to FSA mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcorey\Documents\GitHub\magic\Toronto\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d64f25a0d4a27da8/Documents/ANALYTICS/Github/magic/Toronto/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EBCC9D1-ACCE-43CD-B2BD-467F8A5CF27B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{0EBCC9D1-ACCE-43CD-B2BD-467F8A5CF27B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E67F1B78-701E-4871-B80B-60E836D963C0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{BB47CB5D-E811-4975-8574-780C0F0253D1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11760" activeTab="1" xr2:uid="{BB47CB5D-E811-4975-8574-780C0F0253D1}"/>
   </bookViews>
   <sheets>
     <sheet name="TorontoFSAs" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="356">
   <si>
     <t>Postal Code</t>
   </si>
@@ -1476,7 +1476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A239D2E1-1F51-46E3-90DB-C53AB72D2EDA}">
   <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A53" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
@@ -2641,8 +2641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EAD786B-4FA3-4A48-9091-6E390B8DA033}">
   <dimension ref="A1:D141"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3110,7 +3110,9 @@
       <c r="B41" t="s">
         <v>322</v>
       </c>
-      <c r="C41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
